--- a/144F20/Topic 7/QR_2-7_Tech_Template (Example).xlsx
+++ b/144F20/Topic 7/QR_2-7_Tech_Template (Example).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA547AA-B8F3-4E4E-AEAA-A1EFAD37860E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{897CA9CD-54CD-4E93-B9D5-F7EAE06E8721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="1116" windowWidth="20796" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,13 +623,23 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{15B15F69-8BB2-44B2-89AF-343D81420E92}" diskRevisions="1" revisionId="82" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F63F7EE6-80A9-47BB-B4BD-5FF6D20749D1}" diskRevisions="1" revisionId="84" version="4">
   <header guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" dateTime="2020-10-28T16:27:16" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
   <header guid="{15B15F69-8BB2-44B2-89AF-343D81420E92}" dateTime="2020-10-28T17:00:39" maxSheetId="2" userName="Richard Ketchersid" r:id="rId2" minRId="1" maxRId="82">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FD00FE90-ED28-4CF4-B0D0-C544D909081F}" dateTime="2020-10-28T17:09:32" maxSheetId="2" userName="Richard Ketchersid" r:id="rId3" minRId="83">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F63F7EE6-80A9-47BB-B4BD-5FF6D20749D1}" dateTime="2020-10-28T17:09:37" maxSheetId="2" userName="Richard Ketchersid" r:id="rId4" minRId="84">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -1087,9 +1097,35 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="83" sId="1">
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>blah</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="84" sId="1">
+    <oc r="E20" t="inlineStr">
+      <is>
+        <t>blah</t>
+      </is>
+    </oc>
+    <nc r="E20"/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" name="Richard Ketchersid" id="-1739585284" dateTime="2020-10-28T17:00:39"/>
+  <userInfo guid="{F63F7EE6-80A9-47BB-B4BD-5FF6D20749D1}" name="Richard Ketchersid" id="-1739553585" dateTime="2020-10-28T17:09:06"/>
 </users>
 </file>
 
@@ -1414,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2180,6 +2216,7 @@
         <v>342220</v>
       </c>
     </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
@@ -2201,6 +2238,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2440,25 +2495,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{304409DA-D7D2-4B77-8585-91038CD31578}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A58233-4D31-4A49-A012-376447DE6072}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C531B44-C316-4FDA-9217-B890CF7C4C55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2476,22 +2531,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A58233-4D31-4A49-A012-376447DE6072}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{304409DA-D7D2-4B77-8585-91038CD31578}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>